--- a/gams_results/gams_salt_st3_75m_forward.xlsx
+++ b/gams_results/gams_salt_st3_75m_forward.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="190">
   <si>
     <t>expr</t>
   </si>
@@ -73,21 +73,6 @@
     <t>Qs_CUMSUM_3</t>
   </si>
   <si>
-    <t>QMinho</t>
-  </si>
-  <si>
-    <t>QMinho_LAG_1</t>
-  </si>
-  <si>
-    <t>QMinho_LAG_2</t>
-  </si>
-  <si>
-    <t>QMinho_CUMSUM_2</t>
-  </si>
-  <si>
-    <t>QMinho_CUMSUM_3</t>
-  </si>
-  <si>
     <t>UI</t>
   </si>
   <si>
@@ -268,21 +253,6 @@
     <t>{'Qs_CUMSUM_3': [0.08330119375285305]}</t>
   </si>
   <si>
-    <t>{'QMinho': [0.004142405290367537]}</t>
-  </si>
-  <si>
-    <t>{'QMinho_LAG_1': [0.0822681974446923]}</t>
-  </si>
-  <si>
-    <t>{'QMinho_LAG_2': [0.11648834826979114]}</t>
-  </si>
-  <si>
-    <t>{'QMinho_CUMSUM_2': [0.08565091258451281]}</t>
-  </si>
-  <si>
-    <t>{'QMinho_CUMSUM_3': [0.12994491035768957]}</t>
-  </si>
-  <si>
     <t>{'UI': [0.08030481020760699]}</t>
   </si>
   <si>
@@ -458,21 +428,6 @@
   </si>
   <si>
     <t>[0.07615990813274964, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[0.045062697135103025, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[1.1508622309586158e-06, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[4.070077608275824e-13, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[0.013372179179314214, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[6.617248151952193e-05, 1.1102230246251565e-16]</t>
   </si>
   <si>
     <t>[0.0002989084047962942, 1.1102230246251565e-16]</t>
@@ -986,7 +941,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M66"/>
+  <dimension ref="A1:M61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1062,13 +1017,13 @@
         <v>0.2038325345251887</v>
       </c>
       <c r="K2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="L2">
         <v>314</v>
       </c>
       <c r="M2" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1103,13 +1058,13 @@
         <v>0.1089958375908466</v>
       </c>
       <c r="K3" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="L3">
         <v>314</v>
       </c>
       <c r="M3" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -1144,13 +1099,13 @@
         <v>0.1100622978193945</v>
       </c>
       <c r="K4" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="L4">
         <v>251</v>
       </c>
       <c r="M4" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -1185,13 +1140,13 @@
         <v>0.1100132275017308</v>
       </c>
       <c r="K5" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="L5">
         <v>314</v>
       </c>
       <c r="M5" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -1226,13 +1181,13 @@
         <v>0.110728417310785</v>
       </c>
       <c r="K6" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="L6">
         <v>314</v>
       </c>
       <c r="M6" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -1267,13 +1222,13 @@
         <v>0.1099512961237264</v>
       </c>
       <c r="K7" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="L7">
         <v>251</v>
       </c>
       <c r="M7" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -1308,13 +1263,13 @@
         <v>0.1100796608426963</v>
       </c>
       <c r="K8" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="L8">
         <v>314</v>
       </c>
       <c r="M8" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1325,37 +1280,37 @@
         <v>19</v>
       </c>
       <c r="C9">
-        <v>27783.78570269642</v>
+        <v>24357.21652577684</v>
       </c>
       <c r="D9">
-        <v>0.001969855672518282</v>
+        <v>0.08707887796700024</v>
       </c>
       <c r="E9">
-        <v>0.001701501308223441</v>
+        <v>0.09522781501026789</v>
       </c>
       <c r="F9">
-        <v>0.9981583559285964</v>
+        <v>0.8981716444002228</v>
       </c>
       <c r="G9">
-        <v>0.001686746642345693</v>
+        <v>0.1015909717649854</v>
       </c>
       <c r="H9">
-        <v>-13888.73755231481</v>
+        <v>-12174.39061117613</v>
       </c>
       <c r="I9">
-        <v>0.08307434235988376</v>
+        <v>0.0816387238939672</v>
       </c>
       <c r="J9">
-        <v>0.1113360606593678</v>
+        <v>0.1077154039673492</v>
       </c>
       <c r="K9" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="L9">
-        <v>314</v>
+        <v>251</v>
       </c>
       <c r="M9" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1366,37 +1321,37 @@
         <v>20</v>
       </c>
       <c r="C10">
-        <v>28270.7357203022</v>
+        <v>29203.15630962729</v>
       </c>
       <c r="D10">
-        <v>0.01796399474399038</v>
+        <v>0.04737367274129514</v>
       </c>
       <c r="E10">
-        <v>0.01793932736570236</v>
+        <v>0.04737130988206528</v>
       </c>
       <c r="F10">
-        <v>0.9806276635273982</v>
+        <v>0.9490538947074589</v>
       </c>
       <c r="G10">
-        <v>0.01922280508688556</v>
+        <v>0.05080835780870496</v>
       </c>
       <c r="H10">
-        <v>-14132.21290424132</v>
+        <v>-14598.45930671809</v>
       </c>
       <c r="I10">
-        <v>0.08222081044991081</v>
+        <v>0.08098193232616779</v>
       </c>
       <c r="J10">
-        <v>0.111287477512335</v>
+        <v>0.1074806340305011</v>
       </c>
       <c r="K10" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="L10">
         <v>314</v>
       </c>
       <c r="M10" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1407,37 +1362,37 @@
         <v>21</v>
       </c>
       <c r="C11">
-        <v>23234.8405525424</v>
+        <v>28462.51426876655</v>
       </c>
       <c r="D11">
-        <v>0.03787002628680543</v>
+        <v>0.03673263881912948</v>
       </c>
       <c r="E11">
-        <v>0.04563075511428338</v>
+        <v>0.03472860945324552</v>
       </c>
       <c r="F11">
-        <v>0.9509052023362604</v>
+        <v>0.9625576718320833</v>
       </c>
       <c r="G11">
-        <v>0.04892018207430648</v>
+        <v>0.03718228699848558</v>
       </c>
       <c r="H11">
-        <v>-11614.28753406028</v>
+        <v>-14226.41377685405</v>
       </c>
       <c r="I11">
-        <v>0.08564601798064299</v>
+        <v>0.08190319057890372</v>
       </c>
       <c r="J11">
-        <v>0.1113375461309299</v>
+        <v>0.1090412643499872</v>
       </c>
       <c r="K11" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="L11">
-        <v>251</v>
+        <v>314</v>
       </c>
       <c r="M11" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1448,37 +1403,37 @@
         <v>22</v>
       </c>
       <c r="C12">
-        <v>27995.74828299493</v>
+        <v>23191.83639243423</v>
       </c>
       <c r="D12">
-        <v>0.009051854359433309</v>
+        <v>0.02653748473325897</v>
       </c>
       <c r="E12">
-        <v>0.008960219456510821</v>
+        <v>0.05822730539822962</v>
       </c>
       <c r="F12">
-        <v>0.9903116843878389</v>
+        <v>0.9373995678484304</v>
       </c>
       <c r="G12">
-        <v>0.009534425650196576</v>
+        <v>0.06227720439857387</v>
       </c>
       <c r="H12">
-        <v>-13994.69942842814</v>
+        <v>-11590.92149338307</v>
       </c>
       <c r="I12">
-        <v>0.08270306928645089</v>
+        <v>0.0848514049758298</v>
       </c>
       <c r="J12">
-        <v>0.1111713212196137</v>
+        <v>0.1165921317079882</v>
       </c>
       <c r="K12" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="L12">
-        <v>314</v>
+        <v>251</v>
       </c>
       <c r="M12" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1489,37 +1444,37 @@
         <v>23</v>
       </c>
       <c r="C13">
-        <v>28332.64900770542</v>
+        <v>24244.11111221992</v>
       </c>
       <c r="D13">
-        <v>0.02014019883770411</v>
+        <v>0.06122760854329688</v>
       </c>
       <c r="E13">
-        <v>0.02012315125525532</v>
+        <v>0.1247603350686198</v>
       </c>
       <c r="F13">
-        <v>0.9782758147381242</v>
+        <v>0.866819592315921</v>
       </c>
       <c r="G13">
-        <v>0.02157361123096768</v>
+        <v>0.1326200607814578</v>
       </c>
       <c r="H13">
-        <v>-14163.1445442419</v>
+        <v>-12113.22508225385</v>
       </c>
       <c r="I13">
-        <v>0.08218169763724743</v>
+        <v>0.08405588473327512</v>
       </c>
       <c r="J13">
-        <v>0.1110398593589269</v>
+        <v>0.1219356987697921</v>
       </c>
       <c r="K13" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="L13">
-        <v>314</v>
+        <v>251</v>
       </c>
       <c r="M13" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1530,37 +1485,37 @@
         <v>24</v>
       </c>
       <c r="C14">
-        <v>24357.21652577684</v>
+        <v>23873.51355463997</v>
       </c>
       <c r="D14">
-        <v>0.08707887796700024</v>
+        <v>0.04427300593000427</v>
       </c>
       <c r="E14">
-        <v>0.09522781501026789</v>
+        <v>0.08373897884899539</v>
       </c>
       <c r="F14">
-        <v>0.8981716444002228</v>
+        <v>0.9102842467981144</v>
       </c>
       <c r="G14">
-        <v>0.1015909717649854</v>
+        <v>0.0894102035821227</v>
       </c>
       <c r="H14">
-        <v>-12174.39061117613</v>
+        <v>-11931.75171822615</v>
       </c>
       <c r="I14">
-        <v>0.0816387238939672</v>
+        <v>0.08369578020870978</v>
       </c>
       <c r="J14">
-        <v>0.1077154039673492</v>
+        <v>0.1173838521318725</v>
       </c>
       <c r="K14" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="L14">
         <v>251</v>
       </c>
       <c r="M14" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1571,37 +1526,37 @@
         <v>25</v>
       </c>
       <c r="C15">
-        <v>29203.15630962729</v>
+        <v>28310.48606666084</v>
       </c>
       <c r="D15">
-        <v>0.04737367274129514</v>
+        <v>0.02010439634295013</v>
       </c>
       <c r="E15">
-        <v>0.04737130988206528</v>
+        <v>0.02006444293102072</v>
       </c>
       <c r="F15">
-        <v>0.9490538947074589</v>
+        <v>0.9783380045296184</v>
       </c>
       <c r="G15">
-        <v>0.05080835780870496</v>
+        <v>0.02150397514118785</v>
       </c>
       <c r="H15">
-        <v>-14598.45930671809</v>
+        <v>-14151.95722113825</v>
       </c>
       <c r="I15">
-        <v>0.08098193232616779</v>
+        <v>0.08287154444286381</v>
       </c>
       <c r="J15">
-        <v>0.1074806340305011</v>
+        <v>0.1122491614313155</v>
       </c>
       <c r="K15" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="L15">
         <v>314</v>
       </c>
       <c r="M15" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1612,37 +1567,37 @@
         <v>26</v>
       </c>
       <c r="C16">
-        <v>28462.51426876655</v>
+        <v>28574.78071234845</v>
       </c>
       <c r="D16">
-        <v>0.03673263881912948</v>
+        <v>0.02866091845021866</v>
       </c>
       <c r="E16">
-        <v>0.03472860945324552</v>
+        <v>0.02861982021471321</v>
       </c>
       <c r="F16">
-        <v>0.9625576718320833</v>
+        <v>0.9691384010014208</v>
       </c>
       <c r="G16">
-        <v>0.03718228699848558</v>
+        <v>0.03070659297545308</v>
       </c>
       <c r="H16">
-        <v>-14226.41377685405</v>
+        <v>-14284.10572642446</v>
       </c>
       <c r="I16">
-        <v>0.08190319057890372</v>
+        <v>0.08182691076925866</v>
       </c>
       <c r="J16">
-        <v>0.1090412643499872</v>
+        <v>0.106659356870639</v>
       </c>
       <c r="K16" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="L16">
         <v>314</v>
       </c>
       <c r="M16" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -1653,37 +1608,37 @@
         <v>27</v>
       </c>
       <c r="C17">
-        <v>23191.83639243423</v>
+        <v>28634.82702608469</v>
       </c>
       <c r="D17">
-        <v>0.02653748473325897</v>
+        <v>0.03054260949630917</v>
       </c>
       <c r="E17">
-        <v>0.05822730539822962</v>
+        <v>0.03054124851562412</v>
       </c>
       <c r="F17">
-        <v>0.9373995678484304</v>
+        <v>0.9670752838535956</v>
       </c>
       <c r="G17">
-        <v>0.06227720439857387</v>
+        <v>0.03277039687409022</v>
       </c>
       <c r="H17">
-        <v>-11590.92149338307</v>
+        <v>-14314.12936199037</v>
       </c>
       <c r="I17">
-        <v>0.0848514049758298</v>
+        <v>0.08185282844857411</v>
       </c>
       <c r="J17">
-        <v>0.1165921317079882</v>
+        <v>0.1062971755461336</v>
       </c>
       <c r="K17" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="L17">
-        <v>251</v>
+        <v>314</v>
       </c>
       <c r="M17" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1694,37 +1649,37 @@
         <v>28</v>
       </c>
       <c r="C18">
-        <v>24244.11111221992</v>
+        <v>27912.00530499372</v>
       </c>
       <c r="D18">
-        <v>0.06122760854329688</v>
+        <v>0.01355622087856968</v>
       </c>
       <c r="E18">
-        <v>0.1247603350686198</v>
+        <v>0.0102376852366729</v>
       </c>
       <c r="F18">
-        <v>0.866819592315921</v>
+        <v>0.9889292185235488</v>
       </c>
       <c r="G18">
-        <v>0.1326200607814578</v>
+        <v>0.01087118577243773</v>
       </c>
       <c r="H18">
-        <v>-12113.22508225385</v>
+        <v>-13952.18668096831</v>
       </c>
       <c r="I18">
-        <v>0.08405588473327512</v>
+        <v>0.0825637590797236</v>
       </c>
       <c r="J18">
-        <v>0.1219356987697921</v>
+        <v>0.1113657143803386</v>
       </c>
       <c r="K18" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="L18">
-        <v>251</v>
+        <v>314</v>
       </c>
       <c r="M18" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1735,37 +1690,37 @@
         <v>29</v>
       </c>
       <c r="C19">
-        <v>23873.51355463997</v>
+        <v>28031.24725982547</v>
       </c>
       <c r="D19">
-        <v>0.04427300593000427</v>
+        <v>0.02416672706146939</v>
       </c>
       <c r="E19">
-        <v>0.08373897884899539</v>
+        <v>0.02040008737557841</v>
       </c>
       <c r="F19">
-        <v>0.9102842467981144</v>
+        <v>0.9779619208432271</v>
       </c>
       <c r="G19">
-        <v>0.0894102035821227</v>
+        <v>0.02177325352481696</v>
       </c>
       <c r="H19">
-        <v>-11931.75171822615</v>
+        <v>-14010.82958975508</v>
       </c>
       <c r="I19">
-        <v>0.08369578020870978</v>
+        <v>0.08201558194338174</v>
       </c>
       <c r="J19">
-        <v>0.1173838521318725</v>
+        <v>0.1118349836082645</v>
       </c>
       <c r="K19" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="L19">
-        <v>251</v>
+        <v>314</v>
       </c>
       <c r="M19" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1776,37 +1731,37 @@
         <v>30</v>
       </c>
       <c r="C20">
-        <v>28310.48606666084</v>
+        <v>27750.91309643795</v>
       </c>
       <c r="D20">
-        <v>0.02010439634295013</v>
+        <v>0.003026304915948646</v>
       </c>
       <c r="E20">
-        <v>0.02006444293102072</v>
+        <v>0.001504471316056799</v>
       </c>
       <c r="F20">
-        <v>0.9783380045296184</v>
+        <v>0.9983714619039645</v>
       </c>
       <c r="G20">
-        <v>0.02150397514118785</v>
+        <v>0.0014631040744848</v>
       </c>
       <c r="H20">
-        <v>-14151.95722113825</v>
+        <v>-13872.15787788144</v>
       </c>
       <c r="I20">
-        <v>0.08287154444286381</v>
+        <v>0.08309553822965227</v>
       </c>
       <c r="J20">
-        <v>0.1122491614313155</v>
+        <v>0.1129127022012268</v>
       </c>
       <c r="K20" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="L20">
         <v>314</v>
       </c>
       <c r="M20" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1817,37 +1772,37 @@
         <v>31</v>
       </c>
       <c r="C21">
-        <v>28574.78071234845</v>
+        <v>28033.89171977248</v>
       </c>
       <c r="D21">
-        <v>0.02866091845021866</v>
+        <v>0.01064034055822263</v>
       </c>
       <c r="E21">
-        <v>0.02861982021471321</v>
+        <v>0.01057216345125178</v>
       </c>
       <c r="F21">
-        <v>0.9691384010014208</v>
+        <v>0.9885710884828908</v>
       </c>
       <c r="G21">
-        <v>0.03070659297545308</v>
+        <v>0.01127173183245356</v>
       </c>
       <c r="H21">
-        <v>-14284.10572642446</v>
+        <v>-14013.71772297407</v>
       </c>
       <c r="I21">
-        <v>0.08182691076925866</v>
+        <v>0.08285248395575734</v>
       </c>
       <c r="J21">
-        <v>0.106659356870639</v>
+        <v>0.1098847167391937</v>
       </c>
       <c r="K21" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="L21">
         <v>314</v>
       </c>
       <c r="M21" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1858,37 +1813,37 @@
         <v>32</v>
       </c>
       <c r="C22">
-        <v>28634.82702608469</v>
+        <v>27904.90150303608</v>
       </c>
       <c r="D22">
-        <v>0.03054260949630917</v>
+        <v>0.006346792913043215</v>
       </c>
       <c r="E22">
-        <v>0.03054124851562412</v>
+        <v>0.006259807486816094</v>
       </c>
       <c r="F22">
-        <v>0.9670752838535956</v>
+        <v>0.9932287719496272</v>
       </c>
       <c r="G22">
-        <v>0.03277039687409022</v>
+        <v>0.006612531337122807</v>
       </c>
       <c r="H22">
-        <v>-14314.12936199037</v>
+        <v>-13949.22196421281</v>
       </c>
       <c r="I22">
-        <v>0.08185282844857411</v>
+        <v>0.08281263453466607</v>
       </c>
       <c r="J22">
-        <v>0.1062971755461336</v>
+        <v>0.1107191936109159</v>
       </c>
       <c r="K22" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="L22">
         <v>314</v>
       </c>
       <c r="M22" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1899,37 +1854,37 @@
         <v>33</v>
       </c>
       <c r="C23">
-        <v>27912.00530499372</v>
+        <v>27881.34786096251</v>
       </c>
       <c r="D23">
-        <v>0.01355622087856968</v>
+        <v>0.005601200270503213</v>
       </c>
       <c r="E23">
-        <v>0.0102376852366729</v>
+        <v>0.005463902274775556</v>
       </c>
       <c r="F23">
-        <v>0.9889292185235488</v>
+        <v>0.9940890354901764</v>
       </c>
       <c r="G23">
-        <v>0.01087118577243773</v>
+        <v>0.005752036834507979</v>
       </c>
       <c r="H23">
-        <v>-13952.18668096831</v>
+        <v>-13937.44571372396</v>
       </c>
       <c r="I23">
-        <v>0.0825637590797236</v>
+        <v>0.0829574413987156</v>
       </c>
       <c r="J23">
-        <v>0.1113657143803386</v>
+        <v>0.111855243839509</v>
       </c>
       <c r="K23" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="L23">
         <v>314</v>
       </c>
       <c r="M23" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1940,37 +1895,37 @@
         <v>34</v>
       </c>
       <c r="C24">
-        <v>28031.24725982547</v>
+        <v>28145.88894136414</v>
       </c>
       <c r="D24">
-        <v>0.02416672706146939</v>
+        <v>0.02980640472376768</v>
       </c>
       <c r="E24">
-        <v>0.02040008737557841</v>
+        <v>0.02722336535662662</v>
       </c>
       <c r="F24">
-        <v>0.9779619208432271</v>
+        <v>0.9706127721529214</v>
       </c>
       <c r="G24">
-        <v>0.02177325352481696</v>
+        <v>0.0290919177507829</v>
       </c>
       <c r="H24">
-        <v>-14010.82958975508</v>
+        <v>-14067.66436698051</v>
       </c>
       <c r="I24">
-        <v>0.08201558194338174</v>
+        <v>0.08154172333768918</v>
       </c>
       <c r="J24">
-        <v>0.1118349836082645</v>
+        <v>0.1120203773688535</v>
       </c>
       <c r="K24" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="L24">
         <v>314</v>
       </c>
       <c r="M24" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1981,37 +1936,37 @@
         <v>35</v>
       </c>
       <c r="C25">
-        <v>27750.91309643795</v>
+        <v>22913.03769861494</v>
       </c>
       <c r="D25">
-        <v>0.003026304915948646</v>
+        <v>0.03947807910535584</v>
       </c>
       <c r="E25">
-        <v>0.001504471316056799</v>
+        <v>0.04844008675140477</v>
       </c>
       <c r="F25">
-        <v>0.9983714619039645</v>
+        <v>0.9478474305468366</v>
       </c>
       <c r="G25">
-        <v>0.0014631040744848</v>
+        <v>0.05181062088320798</v>
       </c>
       <c r="H25">
-        <v>-13872.15787788144</v>
+        <v>-11451.38760888769</v>
       </c>
       <c r="I25">
-        <v>0.08309553822965227</v>
+        <v>0.08622149228356923</v>
       </c>
       <c r="J25">
-        <v>0.1129127022012268</v>
+        <v>0.1117786745499718</v>
       </c>
       <c r="K25" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="L25">
-        <v>314</v>
+        <v>251</v>
       </c>
       <c r="M25" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -2022,37 +1977,37 @@
         <v>36</v>
       </c>
       <c r="C26">
-        <v>28033.89171977248</v>
+        <v>28129.98430479254</v>
       </c>
       <c r="D26">
-        <v>0.01064034055822263</v>
+        <v>0.02857083418831182</v>
       </c>
       <c r="E26">
-        <v>0.01057216345125178</v>
+        <v>0.02660401185962313</v>
       </c>
       <c r="F26">
-        <v>0.9885710884828908</v>
+        <v>0.971279046842638</v>
       </c>
       <c r="G26">
-        <v>0.01127173183245356</v>
+        <v>0.02842637338037712</v>
       </c>
       <c r="H26">
-        <v>-14013.71772297407</v>
+        <v>-14059.72796946843</v>
       </c>
       <c r="I26">
-        <v>0.08285248395575734</v>
+        <v>0.08225386858401251</v>
       </c>
       <c r="J26">
-        <v>0.1098847167391937</v>
+        <v>0.1120832343144536</v>
       </c>
       <c r="K26" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="L26">
         <v>314</v>
       </c>
       <c r="M26" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -2063,37 +2018,37 @@
         <v>37</v>
       </c>
       <c r="C27">
-        <v>27904.90150303608</v>
+        <v>32309.7833639428</v>
       </c>
       <c r="D27">
-        <v>0.006346792913043215</v>
+        <v>0.1347748003114392</v>
       </c>
       <c r="E27">
-        <v>0.006259807486816094</v>
+        <v>0.1347721340773825</v>
       </c>
       <c r="F27">
-        <v>0.9932287719496272</v>
+        <v>0.8567144756770191</v>
       </c>
       <c r="G27">
-        <v>0.006612531337122807</v>
+        <v>0.1431690636280309</v>
       </c>
       <c r="H27">
-        <v>-13949.22196421281</v>
+        <v>-16151.69604060089</v>
       </c>
       <c r="I27">
-        <v>0.08281263453466607</v>
+        <v>0.07799078025900978</v>
       </c>
       <c r="J27">
-        <v>0.1107191936109159</v>
+        <v>0.1011652039455984</v>
       </c>
       <c r="K27" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="L27">
         <v>314</v>
       </c>
       <c r="M27" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -2104,37 +2059,37 @@
         <v>38</v>
       </c>
       <c r="C28">
-        <v>27881.34786096251</v>
+        <v>32365.27869414403</v>
       </c>
       <c r="D28">
-        <v>0.005601200270503213</v>
+        <v>0.1421776661378251</v>
       </c>
       <c r="E28">
-        <v>0.005463902274775556</v>
+        <v>0.1419920290113514</v>
       </c>
       <c r="F28">
-        <v>0.9940890354901764</v>
+        <v>0.8491209702098231</v>
       </c>
       <c r="G28">
-        <v>0.005752036834507979</v>
+        <v>0.1507086464772371</v>
       </c>
       <c r="H28">
-        <v>-13937.44571372396</v>
+        <v>-16178.39301551652</v>
       </c>
       <c r="I28">
-        <v>0.0829574413987156</v>
+        <v>0.07705197065867167</v>
       </c>
       <c r="J28">
-        <v>0.111855243839509</v>
+        <v>0.1012124832978968</v>
       </c>
       <c r="K28" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="L28">
         <v>314</v>
       </c>
       <c r="M28" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -2145,37 +2100,37 @@
         <v>39</v>
       </c>
       <c r="C29">
-        <v>28145.88894136414</v>
+        <v>32096.8127647238</v>
       </c>
       <c r="D29">
-        <v>0.02980640472376768</v>
+        <v>0.135407775442851</v>
       </c>
       <c r="E29">
-        <v>0.02722336535662662</v>
+        <v>0.1352766182597381</v>
       </c>
       <c r="F29">
-        <v>0.9706127721529214</v>
+        <v>0.8561331260920659</v>
       </c>
       <c r="G29">
-        <v>0.0290919177507829</v>
+        <v>0.1436927745264951</v>
       </c>
       <c r="H29">
-        <v>-14067.66436698051</v>
+        <v>-16044.14371746575</v>
       </c>
       <c r="I29">
-        <v>0.08154172333768918</v>
+        <v>0.07676238014857437</v>
       </c>
       <c r="J29">
-        <v>0.1120203773688535</v>
+        <v>0.1021443519986322</v>
       </c>
       <c r="K29" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="L29">
         <v>314</v>
       </c>
       <c r="M29" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -2186,37 +2141,37 @@
         <v>40</v>
       </c>
       <c r="C30">
-        <v>22913.03769861494</v>
+        <v>68494.36934732104</v>
       </c>
       <c r="D30">
-        <v>0.03947807910535584</v>
+        <v>0.6307683010123448</v>
       </c>
       <c r="E30">
-        <v>0.04844008675140477</v>
+        <v>0.6306720903633054</v>
       </c>
       <c r="F30">
-        <v>0.9478474305468366</v>
+        <v>0.3597952893182904</v>
       </c>
       <c r="G30">
-        <v>0.05181062088320798</v>
+        <v>0.6399747434688743</v>
       </c>
       <c r="H30">
-        <v>-11451.38760888769</v>
+        <v>-34224.30982044736</v>
       </c>
       <c r="I30">
-        <v>0.08622149228356923</v>
+        <v>0.04646721853552042</v>
       </c>
       <c r="J30">
-        <v>0.1117786745499718</v>
+        <v>0.1652229055303168</v>
       </c>
       <c r="K30" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="L30">
-        <v>251</v>
+        <v>314</v>
       </c>
       <c r="M30" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -2227,37 +2182,37 @@
         <v>41</v>
       </c>
       <c r="C31">
-        <v>28129.98430479254</v>
+        <v>68122.73926478371</v>
       </c>
       <c r="D31">
-        <v>0.02857083418831182</v>
+        <v>0.6260552265830113</v>
       </c>
       <c r="E31">
-        <v>0.02660401185962313</v>
+        <v>0.6259386647745214</v>
       </c>
       <c r="F31">
-        <v>0.971279046842638</v>
+        <v>0.3644449363047079</v>
       </c>
       <c r="G31">
-        <v>0.02842637338037712</v>
+        <v>0.635332551353017</v>
       </c>
       <c r="H31">
-        <v>-14059.72796946843</v>
+        <v>-34039.58671728995</v>
       </c>
       <c r="I31">
-        <v>0.08225386858401251</v>
+        <v>0.04708604096123489</v>
       </c>
       <c r="J31">
-        <v>0.1120832343144536</v>
+        <v>0.2198441878031542</v>
       </c>
       <c r="K31" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="L31">
         <v>314</v>
       </c>
       <c r="M31" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -2268,37 +2223,37 @@
         <v>42</v>
       </c>
       <c r="C32">
-        <v>32309.7833639428</v>
+        <v>64375.25250657725</v>
       </c>
       <c r="D32">
-        <v>0.1347748003114392</v>
+        <v>0.6050232476703237</v>
       </c>
       <c r="E32">
-        <v>0.1347721340773825</v>
+        <v>0.604881721782345</v>
       </c>
       <c r="F32">
-        <v>0.8567144756770191</v>
+        <v>0.384857692569684</v>
       </c>
       <c r="G32">
-        <v>0.1431690636280309</v>
+        <v>0.6148936229601987</v>
       </c>
       <c r="H32">
-        <v>-16151.69604060089</v>
+        <v>-32165.84156995986</v>
       </c>
       <c r="I32">
-        <v>0.07799078025900978</v>
+        <v>0.04933088971619307</v>
       </c>
       <c r="J32">
-        <v>0.1011652039455984</v>
+        <v>0.2462372554300544</v>
       </c>
       <c r="K32" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="L32">
         <v>314</v>
       </c>
       <c r="M32" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -2309,37 +2264,37 @@
         <v>43</v>
       </c>
       <c r="C33">
-        <v>32365.27869414403</v>
+        <v>61041.17936167146</v>
       </c>
       <c r="D33">
-        <v>0.1421776661378251</v>
+        <v>0.5842148348445887</v>
       </c>
       <c r="E33">
-        <v>0.1419920290113514</v>
+        <v>0.5840250670774854</v>
       </c>
       <c r="F33">
-        <v>0.8491209702098231</v>
+        <v>0.4051023046392759</v>
       </c>
       <c r="G33">
-        <v>0.1507086464772371</v>
+        <v>0.5946216625183922</v>
       </c>
       <c r="H33">
-        <v>-16178.39301551652</v>
+        <v>-30498.80808421974</v>
       </c>
       <c r="I33">
-        <v>0.07705197065867167</v>
+        <v>0.0506670318873554</v>
       </c>
       <c r="J33">
-        <v>0.1012124832978968</v>
+        <v>0.188882935566703</v>
       </c>
       <c r="K33" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="L33">
         <v>314</v>
       </c>
       <c r="M33" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -2350,37 +2305,37 @@
         <v>44</v>
       </c>
       <c r="C34">
-        <v>32096.8127647238</v>
+        <v>66499.53961523164</v>
       </c>
       <c r="D34">
-        <v>0.135407775442851</v>
+        <v>0.6172631555172485</v>
       </c>
       <c r="E34">
-        <v>0.1352766182597381</v>
+        <v>0.6171521004689767</v>
       </c>
       <c r="F34">
-        <v>0.8561331260920659</v>
+        <v>0.3729586469725885</v>
       </c>
       <c r="G34">
-        <v>0.1436927745264951</v>
+        <v>0.6268078541391624</v>
       </c>
       <c r="H34">
-        <v>-16044.14371746575</v>
+        <v>-33227.96671496815</v>
       </c>
       <c r="I34">
-        <v>0.07676238014857437</v>
+        <v>0.04774382235072218</v>
       </c>
       <c r="J34">
-        <v>0.1021443519986322</v>
+        <v>0.2291501142253158</v>
       </c>
       <c r="K34" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="L34">
         <v>314</v>
       </c>
       <c r="M34" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -2391,37 +2346,37 @@
         <v>45</v>
       </c>
       <c r="C35">
-        <v>68494.36934732104</v>
+        <v>64273.26940321204</v>
       </c>
       <c r="D35">
-        <v>0.6307683010123448</v>
+        <v>0.6043332700676679</v>
       </c>
       <c r="E35">
-        <v>0.6306720903633054</v>
+        <v>0.6042024398229677</v>
       </c>
       <c r="F35">
-        <v>0.3597952893182904</v>
+        <v>0.3855183137590545</v>
       </c>
       <c r="G35">
-        <v>0.6399747434688743</v>
+        <v>0.6142325029402365</v>
       </c>
       <c r="H35">
-        <v>-34224.30982044736</v>
+        <v>-32114.87695610814</v>
       </c>
       <c r="I35">
-        <v>0.04646721853552042</v>
+        <v>0.04925197047828954</v>
       </c>
       <c r="J35">
-        <v>0.1652229055303168</v>
+        <v>0.2417880236329367</v>
       </c>
       <c r="K35" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="L35">
         <v>314</v>
       </c>
       <c r="M35" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -2432,37 +2387,37 @@
         <v>46</v>
       </c>
       <c r="C36">
-        <v>68122.73926478371</v>
+        <v>61817.38517562195</v>
       </c>
       <c r="D36">
-        <v>0.6260552265830113</v>
+        <v>0.5868046130543867</v>
       </c>
       <c r="E36">
-        <v>0.6259386647745214</v>
+        <v>0.5864896738890885</v>
       </c>
       <c r="F36">
-        <v>0.3644449363047079</v>
+        <v>0.4027696151612242</v>
       </c>
       <c r="G36">
-        <v>0.635332551353017</v>
+        <v>0.5969713976489435</v>
       </c>
       <c r="H36">
-        <v>-34039.58671728995</v>
+        <v>-30887.83122710153</v>
       </c>
       <c r="I36">
-        <v>0.04708604096123489</v>
+        <v>0.05077186330002538</v>
       </c>
       <c r="J36">
-        <v>0.2198441878031542</v>
+        <v>0.2138375764590553</v>
       </c>
       <c r="K36" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="L36">
         <v>314</v>
       </c>
       <c r="M36" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -2473,37 +2428,37 @@
         <v>47</v>
       </c>
       <c r="C37">
-        <v>64375.25250657725</v>
+        <v>58889.82404946601</v>
       </c>
       <c r="D37">
-        <v>0.6050232476703237</v>
+        <v>0.5610397734184669</v>
       </c>
       <c r="E37">
-        <v>0.604881721782345</v>
+        <v>0.5603416187728772</v>
       </c>
       <c r="F37">
-        <v>0.384857692569684</v>
+        <v>0.4283414647329459</v>
       </c>
       <c r="G37">
-        <v>0.6148936229601987</v>
+        <v>0.5714004595555833</v>
       </c>
       <c r="H37">
-        <v>-32165.84156995986</v>
+        <v>-29426.18275107026</v>
       </c>
       <c r="I37">
-        <v>0.04933088971619307</v>
+        <v>0.05213598232633285</v>
       </c>
       <c r="J37">
-        <v>0.2462372554300544</v>
+        <v>0.2375230549641771</v>
       </c>
       <c r="K37" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="L37">
         <v>314</v>
       </c>
       <c r="M37" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -2514,37 +2469,37 @@
         <v>48</v>
       </c>
       <c r="C38">
-        <v>61041.17936167146</v>
+        <v>61126.24810534401</v>
       </c>
       <c r="D38">
-        <v>0.5842148348445887</v>
+        <v>0.5765042016415277</v>
       </c>
       <c r="E38">
-        <v>0.5840250670774854</v>
+        <v>0.5758749395260233</v>
       </c>
       <c r="F38">
-        <v>0.4051023046392759</v>
+        <v>0.4132275468680732</v>
       </c>
       <c r="G38">
-        <v>0.5946216625183922</v>
+        <v>0.5865326602955271</v>
       </c>
       <c r="H38">
-        <v>-30498.80808421974</v>
+        <v>-30544.39936752945</v>
       </c>
       <c r="I38">
-        <v>0.0506670318873554</v>
+        <v>0.05090231875847311</v>
       </c>
       <c r="J38">
-        <v>0.188882935566703</v>
+        <v>0.2251568783203956</v>
       </c>
       <c r="K38" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="L38">
         <v>314</v>
       </c>
       <c r="M38" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
     </row>
     <row r="39" spans="1:13">
@@ -2555,37 +2510,37 @@
         <v>49</v>
       </c>
       <c r="C39">
-        <v>66499.53961523164</v>
+        <v>57435.60302548015</v>
       </c>
       <c r="D39">
-        <v>0.6172631555172485</v>
+        <v>0.5506093889118524</v>
       </c>
       <c r="E39">
-        <v>0.6171521004689767</v>
+        <v>0.549924844287646</v>
       </c>
       <c r="F39">
-        <v>0.3729586469725885</v>
+        <v>0.4384803553376782</v>
       </c>
       <c r="G39">
-        <v>0.6268078541391624</v>
+        <v>0.5612471478724017</v>
       </c>
       <c r="H39">
-        <v>-33227.96671496815</v>
+        <v>-28698.96633243059</v>
       </c>
       <c r="I39">
-        <v>0.04774382235072218</v>
+        <v>0.05332173542525562</v>
       </c>
       <c r="J39">
-        <v>0.2291501142253158</v>
+        <v>0.256645957879886</v>
       </c>
       <c r="K39" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="L39">
         <v>314</v>
       </c>
       <c r="M39" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
     </row>
     <row r="40" spans="1:13">
@@ -2596,37 +2551,37 @@
         <v>50</v>
       </c>
       <c r="C40">
-        <v>64273.26940321204</v>
+        <v>58229.77582895754</v>
       </c>
       <c r="D40">
-        <v>0.6043332700676679</v>
+        <v>0.5563046982718074</v>
       </c>
       <c r="E40">
-        <v>0.6042024398229677</v>
+        <v>0.5556427621681805</v>
       </c>
       <c r="F40">
-        <v>0.3855183137590545</v>
+        <v>0.4329146702607599</v>
       </c>
       <c r="G40">
-        <v>0.6142325029402365</v>
+        <v>0.566820990354773</v>
       </c>
       <c r="H40">
-        <v>-32114.87695610814</v>
+        <v>-29096.1217091932</v>
       </c>
       <c r="I40">
-        <v>0.04925197047828954</v>
+        <v>0.0526678101657498</v>
       </c>
       <c r="J40">
-        <v>0.2417880236329367</v>
+        <v>0.2458348210905758</v>
       </c>
       <c r="K40" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="L40">
         <v>314</v>
       </c>
       <c r="M40" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -2637,37 +2592,37 @@
         <v>51</v>
       </c>
       <c r="C41">
-        <v>61817.38517562195</v>
+        <v>68396.18823076779</v>
       </c>
       <c r="D41">
-        <v>0.5868046130543867</v>
+        <v>0.6276031089747284</v>
       </c>
       <c r="E41">
-        <v>0.5864896738890885</v>
+        <v>0.6274859763753947</v>
       </c>
       <c r="F41">
-        <v>0.4027696151612242</v>
+        <v>0.3629435662267627</v>
       </c>
       <c r="G41">
-        <v>0.5969713976489435</v>
+        <v>0.6368353133367108</v>
       </c>
       <c r="H41">
-        <v>-30887.83122710153</v>
+        <v>-34176.27249737855</v>
       </c>
       <c r="I41">
-        <v>0.05077186330002538</v>
+        <v>0.04763945295132865</v>
       </c>
       <c r="J41">
-        <v>0.2138375764590553</v>
+        <v>0.06988904796160979</v>
       </c>
       <c r="K41" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="L41">
         <v>314</v>
       </c>
       <c r="M41" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
     </row>
     <row r="42" spans="1:13">
@@ -2678,37 +2633,37 @@
         <v>52</v>
       </c>
       <c r="C42">
-        <v>58889.82404946601</v>
+        <v>65139.16388495432</v>
       </c>
       <c r="D42">
-        <v>0.5610397734184669</v>
+        <v>0.6045981038068255</v>
       </c>
       <c r="E42">
-        <v>0.5603416187728772</v>
+        <v>0.6044659505823347</v>
       </c>
       <c r="F42">
-        <v>0.4283414647329459</v>
+        <v>0.3853761249539749</v>
       </c>
       <c r="G42">
-        <v>0.5714004595555833</v>
+        <v>0.6143994916185923</v>
       </c>
       <c r="H42">
-        <v>-29426.18275107026</v>
+        <v>-32549.63007419889</v>
       </c>
       <c r="I42">
-        <v>0.05213598232633285</v>
+        <v>0.04964708920850042</v>
       </c>
       <c r="J42">
-        <v>0.2375230549641771</v>
+        <v>0.09171157103220713</v>
       </c>
       <c r="K42" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="L42">
         <v>314</v>
       </c>
       <c r="M42" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
     </row>
     <row r="43" spans="1:13">
@@ -2719,37 +2674,37 @@
         <v>53</v>
       </c>
       <c r="C43">
-        <v>61126.24810534401</v>
+        <v>61821.93268069666</v>
       </c>
       <c r="D43">
-        <v>0.5765042016415277</v>
+        <v>0.5840954236670759</v>
       </c>
       <c r="E43">
-        <v>0.5758749395260233</v>
+        <v>0.5839575141902151</v>
       </c>
       <c r="F43">
-        <v>0.4132275468680732</v>
+        <v>0.4052896060194059</v>
       </c>
       <c r="G43">
-        <v>0.5865326602955271</v>
+        <v>0.5944617447121199</v>
       </c>
       <c r="H43">
-        <v>-30544.39936752945</v>
+        <v>-30891.01439088641</v>
       </c>
       <c r="I43">
-        <v>0.05090231875847311</v>
+        <v>0.05164488354344732</v>
       </c>
       <c r="J43">
-        <v>0.2251568783203956</v>
+        <v>0.2135159699095102</v>
       </c>
       <c r="K43" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="L43">
         <v>314</v>
       </c>
       <c r="M43" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
     </row>
     <row r="44" spans="1:13">
@@ -2760,37 +2715,37 @@
         <v>54</v>
       </c>
       <c r="C44">
-        <v>57435.60302548015</v>
+        <v>58758.65968492364</v>
       </c>
       <c r="D44">
-        <v>0.5506093889118524</v>
+        <v>0.5681120718305065</v>
       </c>
       <c r="E44">
-        <v>0.549924844287646</v>
+        <v>0.567974580529012</v>
       </c>
       <c r="F44">
-        <v>0.4384803553376782</v>
+        <v>0.4207127256611324</v>
       </c>
       <c r="G44">
-        <v>0.5612471478724017</v>
+        <v>0.5789916727465292</v>
       </c>
       <c r="H44">
-        <v>-28698.96633243059</v>
+        <v>-29357.70250442713</v>
       </c>
       <c r="I44">
-        <v>0.05332173542525562</v>
+        <v>0.05145786132725577</v>
       </c>
       <c r="J44">
-        <v>0.256645957879886</v>
+        <v>0.2538414641150361</v>
       </c>
       <c r="K44" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="L44">
         <v>314</v>
       </c>
       <c r="M44" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
     </row>
     <row r="45" spans="1:13">
@@ -2801,37 +2756,37 @@
         <v>55</v>
       </c>
       <c r="C45">
-        <v>58229.77582895754</v>
+        <v>59210.80605156442</v>
       </c>
       <c r="D45">
-        <v>0.5563046982718074</v>
+        <v>0.566440058768733</v>
       </c>
       <c r="E45">
-        <v>0.5556427621681805</v>
+        <v>0.5657973689091212</v>
       </c>
       <c r="F45">
-        <v>0.4329146702607599</v>
+        <v>0.4229574371631498</v>
       </c>
       <c r="G45">
-        <v>0.566820990354773</v>
+        <v>0.5767738069926343</v>
       </c>
       <c r="H45">
-        <v>-29096.1217091932</v>
+        <v>-29585.60372541006</v>
       </c>
       <c r="I45">
-        <v>0.0526678101657498</v>
+        <v>0.05270958211644506</v>
       </c>
       <c r="J45">
-        <v>0.2458348210905758</v>
+        <v>0.2472926530980984</v>
       </c>
       <c r="K45" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="L45">
         <v>314</v>
       </c>
       <c r="M45" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
     </row>
     <row r="46" spans="1:13">
@@ -2842,37 +2797,37 @@
         <v>56</v>
       </c>
       <c r="C46">
-        <v>68396.18823076779</v>
+        <v>58608.55501361436</v>
       </c>
       <c r="D46">
-        <v>0.6276031089747284</v>
+        <v>0.567061723070988</v>
       </c>
       <c r="E46">
-        <v>0.6274859763753947</v>
+        <v>0.5669231077318342</v>
       </c>
       <c r="F46">
-        <v>0.3629435662267627</v>
+        <v>0.421734972276236</v>
       </c>
       <c r="G46">
-        <v>0.6368353133367108</v>
+        <v>0.5779678673922246</v>
       </c>
       <c r="H46">
-        <v>-34176.27249737855</v>
+        <v>-29282.64454787747</v>
       </c>
       <c r="I46">
-        <v>0.04763945295132865</v>
+        <v>0.05219523446047666</v>
       </c>
       <c r="J46">
-        <v>0.06988904796160979</v>
+        <v>0.263360927926779</v>
       </c>
       <c r="K46" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="L46">
         <v>314</v>
       </c>
       <c r="M46" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
     </row>
     <row r="47" spans="1:13">
@@ -2883,37 +2838,37 @@
         <v>57</v>
       </c>
       <c r="C47">
-        <v>65139.16388495432</v>
+        <v>58517.75340912057</v>
       </c>
       <c r="D47">
-        <v>0.6045981038068255</v>
+        <v>0.5622473972937981</v>
       </c>
       <c r="E47">
-        <v>0.6044659505823347</v>
+        <v>0.5616735929948978</v>
       </c>
       <c r="F47">
-        <v>0.3853761249539749</v>
+        <v>0.4269509192241383</v>
       </c>
       <c r="G47">
-        <v>0.6143994916185923</v>
+        <v>0.5727704475782901</v>
       </c>
       <c r="H47">
-        <v>-32549.63007419889</v>
+        <v>-29238.79512255329</v>
       </c>
       <c r="I47">
-        <v>0.04964708920850042</v>
+        <v>0.05265026035972651</v>
       </c>
       <c r="J47">
-        <v>0.09171157103220713</v>
+        <v>0.2422244104221508</v>
       </c>
       <c r="K47" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="L47">
         <v>314</v>
       </c>
       <c r="M47" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
     </row>
     <row r="48" spans="1:13">
@@ -2924,37 +2879,37 @@
         <v>58</v>
       </c>
       <c r="C48">
-        <v>61821.93268069666</v>
+        <v>57969.39542223229</v>
       </c>
       <c r="D48">
-        <v>0.5840954236670759</v>
+        <v>0.5583531170122498</v>
       </c>
       <c r="E48">
-        <v>0.5839575141902151</v>
+        <v>0.5576620228666629</v>
       </c>
       <c r="F48">
-        <v>0.4052896060194059</v>
+        <v>0.4308562381926069</v>
       </c>
       <c r="G48">
-        <v>0.5944617447121199</v>
+        <v>0.5688599697557506</v>
       </c>
       <c r="H48">
-        <v>-30891.01439088641</v>
+        <v>-28964.61958693231</v>
       </c>
       <c r="I48">
-        <v>0.05164488354344732</v>
+        <v>0.0528660559600293</v>
       </c>
       <c r="J48">
-        <v>0.2135159699095102</v>
+        <v>0.2670102425174851</v>
       </c>
       <c r="K48" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="L48">
         <v>314</v>
       </c>
       <c r="M48" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
     </row>
     <row r="49" spans="1:13">
@@ -2965,37 +2920,37 @@
         <v>59</v>
       </c>
       <c r="C49">
-        <v>58758.65968492364</v>
+        <v>57806.55750813802</v>
       </c>
       <c r="D49">
-        <v>0.5681120718305065</v>
+        <v>0.5618233436479092</v>
       </c>
       <c r="E49">
-        <v>0.567974580529012</v>
+        <v>0.5616855177829723</v>
       </c>
       <c r="F49">
-        <v>0.4207127256611324</v>
+        <v>0.4268169590162111</v>
       </c>
       <c r="G49">
-        <v>0.5789916727465292</v>
+        <v>0.5728753564175924</v>
       </c>
       <c r="H49">
-        <v>-29357.70250442713</v>
+        <v>-28881.45863695764</v>
       </c>
       <c r="I49">
-        <v>0.05145786132725577</v>
+        <v>0.05268138477518962</v>
       </c>
       <c r="J49">
-        <v>0.2538414641150361</v>
+        <v>0.2653533863964901</v>
       </c>
       <c r="K49" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="L49">
         <v>314</v>
       </c>
       <c r="M49" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
     </row>
     <row r="50" spans="1:13">
@@ -3006,37 +2961,37 @@
         <v>60</v>
       </c>
       <c r="C50">
-        <v>59210.80605156442</v>
+        <v>57877.27017295504</v>
       </c>
       <c r="D50">
-        <v>0.566440058768733</v>
+        <v>0.5584718708107302</v>
       </c>
       <c r="E50">
-        <v>0.5657973689091212</v>
+        <v>0.5578720380914688</v>
       </c>
       <c r="F50">
-        <v>0.4229574371631498</v>
+        <v>0.4306308848652413</v>
       </c>
       <c r="G50">
-        <v>0.5767738069926343</v>
+        <v>0.5690806073388661</v>
       </c>
       <c r="H50">
-        <v>-29585.60372541006</v>
+        <v>-28918.26085208629</v>
       </c>
       <c r="I50">
-        <v>0.05270958211644506</v>
+        <v>0.05276656184219865</v>
       </c>
       <c r="J50">
-        <v>0.2472926530980984</v>
+        <v>0.2702499694218124</v>
       </c>
       <c r="K50" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="L50">
         <v>314</v>
       </c>
       <c r="M50" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
     </row>
     <row r="51" spans="1:13">
@@ -3047,37 +3002,37 @@
         <v>61</v>
       </c>
       <c r="C51">
-        <v>58608.55501361436</v>
+        <v>59189.40894892703</v>
       </c>
       <c r="D51">
-        <v>0.567061723070988</v>
+        <v>0.5686610634500507</v>
       </c>
       <c r="E51">
-        <v>0.5669231077318342</v>
+        <v>0.5680389972604887</v>
       </c>
       <c r="F51">
-        <v>0.421734972276236</v>
+        <v>0.4207204690695311</v>
       </c>
       <c r="G51">
-        <v>0.5779678673922246</v>
+        <v>0.5790005109332813</v>
       </c>
       <c r="H51">
-        <v>-29282.64454787747</v>
+        <v>-29574.09106505645</v>
       </c>
       <c r="I51">
-        <v>0.05219523446047666</v>
+        <v>0.05226167019378516</v>
       </c>
       <c r="J51">
-        <v>0.263360927926779</v>
+        <v>0.250570607984794</v>
       </c>
       <c r="K51" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="L51">
         <v>314</v>
       </c>
       <c r="M51" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
     </row>
     <row r="52" spans="1:13">
@@ -3088,37 +3043,37 @@
         <v>62</v>
       </c>
       <c r="C52">
-        <v>58517.75340912057</v>
+        <v>57370.98825443107</v>
       </c>
       <c r="D52">
-        <v>0.5622473972937981</v>
+        <v>0.5547856962571069</v>
       </c>
       <c r="E52">
-        <v>0.5616735929948978</v>
+        <v>0.5541321598785374</v>
       </c>
       <c r="F52">
-        <v>0.4269509192241383</v>
+        <v>0.4342718507526072</v>
       </c>
       <c r="G52">
-        <v>0.5727704475782901</v>
+        <v>0.5654345113183836</v>
       </c>
       <c r="H52">
-        <v>-29238.79512255329</v>
+        <v>-28665.1118806507</v>
       </c>
       <c r="I52">
-        <v>0.05265026035972651</v>
+        <v>0.05298168155438274</v>
       </c>
       <c r="J52">
-        <v>0.2422244104221508</v>
+        <v>0.2398037208370664</v>
       </c>
       <c r="K52" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="L52">
         <v>314</v>
       </c>
       <c r="M52" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
     </row>
     <row r="53" spans="1:13">
@@ -3129,37 +3084,37 @@
         <v>63</v>
       </c>
       <c r="C53">
-        <v>57969.39542223229</v>
+        <v>57407.87108880346</v>
       </c>
       <c r="D53">
-        <v>0.5583531170122498</v>
+        <v>0.5529767130190115</v>
       </c>
       <c r="E53">
-        <v>0.5576620228666629</v>
+        <v>0.5523268472412399</v>
       </c>
       <c r="F53">
-        <v>0.4308562381926069</v>
+        <v>0.4360790941317292</v>
       </c>
       <c r="G53">
-        <v>0.5688599697557506</v>
+        <v>0.5636366896972633</v>
       </c>
       <c r="H53">
-        <v>-28964.61958693231</v>
+        <v>-28684.24048401399</v>
       </c>
       <c r="I53">
-        <v>0.0528660559600293</v>
+        <v>0.05361613738461978</v>
       </c>
       <c r="J53">
-        <v>0.2670102425174851</v>
+        <v>0.2026049911386878</v>
       </c>
       <c r="K53" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="L53">
         <v>314</v>
       </c>
       <c r="M53" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
     </row>
     <row r="54" spans="1:13">
@@ -3170,37 +3125,37 @@
         <v>64</v>
       </c>
       <c r="C54">
-        <v>57806.55750813802</v>
+        <v>57475.99682881826</v>
       </c>
       <c r="D54">
-        <v>0.5618233436479092</v>
+        <v>0.5535727077346136</v>
       </c>
       <c r="E54">
-        <v>0.5616855177829723</v>
+        <v>0.5528411758708178</v>
       </c>
       <c r="F54">
-        <v>0.4268169590162111</v>
+        <v>0.4355780322451612</v>
       </c>
       <c r="G54">
-        <v>0.5728753564175924</v>
+        <v>0.5641384027335434</v>
       </c>
       <c r="H54">
-        <v>-28881.45863695764</v>
+        <v>-28718.30255402947</v>
       </c>
       <c r="I54">
-        <v>0.05268138477518962</v>
+        <v>0.0529680864897966</v>
       </c>
       <c r="J54">
-        <v>0.2653533863964901</v>
+        <v>0.224146933627083</v>
       </c>
       <c r="K54" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="L54">
         <v>314</v>
       </c>
       <c r="M54" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
     </row>
     <row r="55" spans="1:13">
@@ -3211,37 +3166,37 @@
         <v>65</v>
       </c>
       <c r="C55">
-        <v>57877.27017295504</v>
+        <v>59098.56771630217</v>
       </c>
       <c r="D55">
-        <v>0.5584718708107302</v>
+        <v>0.5703617963655575</v>
       </c>
       <c r="E55">
-        <v>0.5578720380914688</v>
+        <v>0.57020115443217</v>
       </c>
       <c r="F55">
-        <v>0.4306308848652413</v>
+        <v>0.4185515755621739</v>
       </c>
       <c r="G55">
-        <v>0.5690806073388661</v>
+        <v>0.5811568692153912</v>
       </c>
       <c r="H55">
-        <v>-28918.26085208629</v>
+        <v>-29527.71540223134</v>
       </c>
       <c r="I55">
-        <v>0.05276656184219865</v>
+        <v>0.05213632895402289</v>
       </c>
       <c r="J55">
-        <v>0.2702499694218124</v>
+        <v>0.2339406818481728</v>
       </c>
       <c r="K55" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="L55">
         <v>314</v>
       </c>
       <c r="M55" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
     </row>
     <row r="56" spans="1:13">
@@ -3252,37 +3207,37 @@
         <v>66</v>
       </c>
       <c r="C56">
-        <v>59189.40894892703</v>
+        <v>59342.85217035557</v>
       </c>
       <c r="D56">
-        <v>0.5686610634500507</v>
+        <v>0.5666921858059288</v>
       </c>
       <c r="E56">
-        <v>0.5680389972604887</v>
+        <v>0.5660768532157952</v>
       </c>
       <c r="F56">
-        <v>0.4207204690695311</v>
+        <v>0.4227008045893984</v>
       </c>
       <c r="G56">
-        <v>0.5790005109332813</v>
+        <v>0.5770343737527499</v>
       </c>
       <c r="H56">
-        <v>-29574.09106505645</v>
+        <v>-29651.84922943006</v>
       </c>
       <c r="I56">
-        <v>0.05226167019378516</v>
+        <v>0.05149199831555391</v>
       </c>
       <c r="J56">
-        <v>0.250570607984794</v>
+        <v>0.2405829958099722</v>
       </c>
       <c r="K56" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="L56">
         <v>314</v>
       </c>
       <c r="M56" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
     </row>
     <row r="57" spans="1:13">
@@ -3293,37 +3248,37 @@
         <v>67</v>
       </c>
       <c r="C57">
-        <v>57370.98825443107</v>
+        <v>61179.14152218483</v>
       </c>
       <c r="D57">
-        <v>0.5547856962571069</v>
+        <v>0.5838268627427071</v>
       </c>
       <c r="E57">
-        <v>0.5541321598785374</v>
+        <v>0.583696278210073</v>
       </c>
       <c r="F57">
-        <v>0.4342718507526072</v>
+        <v>0.4054508721807393</v>
       </c>
       <c r="G57">
-        <v>0.5654345113183836</v>
+        <v>0.5942792656412046</v>
       </c>
       <c r="H57">
-        <v>-28665.1118806507</v>
+        <v>-30568.22499704794</v>
       </c>
       <c r="I57">
-        <v>0.05298168155438274</v>
+        <v>0.05034664952495855</v>
       </c>
       <c r="J57">
-        <v>0.2398037208370664</v>
+        <v>0.2220036229284597</v>
       </c>
       <c r="K57" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="L57">
         <v>314</v>
       </c>
       <c r="M57" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="58" spans="1:13">
@@ -3334,37 +3289,37 @@
         <v>68</v>
       </c>
       <c r="C58">
-        <v>57407.87108880346</v>
+        <v>58971.18567606682</v>
       </c>
       <c r="D58">
-        <v>0.5529767130190115</v>
+        <v>0.5640297918662739</v>
       </c>
       <c r="E58">
-        <v>0.5523268472412399</v>
+        <v>0.5634499613765314</v>
       </c>
       <c r="F58">
-        <v>0.4360790941317292</v>
+        <v>0.4252568035217066</v>
       </c>
       <c r="G58">
-        <v>0.5636366896972633</v>
+        <v>0.5744750282624211</v>
       </c>
       <c r="H58">
-        <v>-28684.24048401399</v>
+        <v>-29466.0114828081</v>
       </c>
       <c r="I58">
-        <v>0.05361613738461978</v>
+        <v>0.05300575178475247</v>
       </c>
       <c r="J58">
-        <v>0.2026049911386878</v>
+        <v>0.2485879277830455</v>
       </c>
       <c r="K58" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="L58">
         <v>314</v>
       </c>
       <c r="M58" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
     </row>
     <row r="59" spans="1:13">
@@ -3375,37 +3330,37 @@
         <v>69</v>
       </c>
       <c r="C59">
-        <v>57475.99682881826</v>
+        <v>64324.07503617543</v>
       </c>
       <c r="D59">
-        <v>0.5535727077346136</v>
+        <v>0.6055355231717512</v>
       </c>
       <c r="E59">
-        <v>0.5528411758708178</v>
+        <v>0.6054996127556294</v>
       </c>
       <c r="F59">
-        <v>0.4355780322451612</v>
+        <v>0.3842367145676718</v>
       </c>
       <c r="G59">
-        <v>0.5641384027335434</v>
+        <v>0.6155107138205421</v>
       </c>
       <c r="H59">
-        <v>-28718.30255402947</v>
+        <v>-32139.91088237994</v>
       </c>
       <c r="I59">
-        <v>0.0529680864897966</v>
+        <v>0.04790108418105591</v>
       </c>
       <c r="J59">
-        <v>0.224146933627083</v>
+        <v>0.06510956839033798</v>
       </c>
       <c r="K59" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="L59">
         <v>314</v>
       </c>
       <c r="M59" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
     </row>
     <row r="60" spans="1:13">
@@ -3416,37 +3371,37 @@
         <v>70</v>
       </c>
       <c r="C60">
-        <v>59098.56771630217</v>
+        <v>62447.12580772091</v>
       </c>
       <c r="D60">
-        <v>0.5703617963655575</v>
+        <v>0.5910517004552405</v>
       </c>
       <c r="E60">
-        <v>0.57020115443217</v>
+        <v>0.5909374727817831</v>
       </c>
       <c r="F60">
-        <v>0.4185515755621739</v>
+        <v>0.398440251499846</v>
       </c>
       <c r="G60">
-        <v>0.5811568692153912</v>
+        <v>0.6013042209709227</v>
       </c>
       <c r="H60">
-        <v>-29527.71540223134</v>
+        <v>-31202.55209668683</v>
       </c>
       <c r="I60">
-        <v>0.05213632895402289</v>
+        <v>0.04933850440081054</v>
       </c>
       <c r="J60">
-        <v>0.2339406818481728</v>
+        <v>0.1575186793121333</v>
       </c>
       <c r="K60" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="L60">
         <v>314</v>
       </c>
       <c r="M60" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
     </row>
     <row r="61" spans="1:13">
@@ -3457,242 +3412,37 @@
         <v>71</v>
       </c>
       <c r="C61">
-        <v>59342.85217035557</v>
+        <v>61438.11719971801</v>
       </c>
       <c r="D61">
-        <v>0.5666921858059288</v>
+        <v>0.5845169584529818</v>
       </c>
       <c r="E61">
-        <v>0.5660768532157952</v>
+        <v>0.5844079401729778</v>
       </c>
       <c r="F61">
-        <v>0.4227008045893984</v>
+        <v>0.4047827572936408</v>
       </c>
       <c r="G61">
-        <v>0.5770343737527499</v>
+        <v>0.5949535566108426</v>
       </c>
       <c r="H61">
-        <v>-29651.84922943006</v>
+        <v>-30698.06107842351</v>
       </c>
       <c r="I61">
-        <v>0.05149199831555391</v>
+        <v>0.05023938750750962</v>
       </c>
       <c r="J61">
-        <v>0.2405829958099722</v>
+        <v>0.1933348859883589</v>
       </c>
       <c r="K61" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="L61">
         <v>314</v>
       </c>
       <c r="M61" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13">
-      <c r="A62" s="1">
-        <v>60</v>
-      </c>
-      <c r="B62" t="s">
-        <v>72</v>
-      </c>
-      <c r="C62">
-        <v>61179.14152218483</v>
-      </c>
-      <c r="D62">
-        <v>0.5838268627427071</v>
-      </c>
-      <c r="E62">
-        <v>0.583696278210073</v>
-      </c>
-      <c r="F62">
-        <v>0.4054508721807393</v>
-      </c>
-      <c r="G62">
-        <v>0.5942792656412046</v>
-      </c>
-      <c r="H62">
-        <v>-30568.22499704794</v>
-      </c>
-      <c r="I62">
-        <v>0.05034664952495855</v>
-      </c>
-      <c r="J62">
-        <v>0.2220036229284597</v>
-      </c>
-      <c r="K62" t="s">
-        <v>137</v>
-      </c>
-      <c r="L62">
-        <v>314</v>
-      </c>
-      <c r="M62" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13">
-      <c r="A63" s="1">
-        <v>61</v>
-      </c>
-      <c r="B63" t="s">
-        <v>73</v>
-      </c>
-      <c r="C63">
-        <v>58971.18567606682</v>
-      </c>
-      <c r="D63">
-        <v>0.5640297918662739</v>
-      </c>
-      <c r="E63">
-        <v>0.5634499613765314</v>
-      </c>
-      <c r="F63">
-        <v>0.4252568035217066</v>
-      </c>
-      <c r="G63">
-        <v>0.5744750282624211</v>
-      </c>
-      <c r="H63">
-        <v>-29466.0114828081</v>
-      </c>
-      <c r="I63">
-        <v>0.05300575178475247</v>
-      </c>
-      <c r="J63">
-        <v>0.2485879277830455</v>
-      </c>
-      <c r="K63" t="s">
-        <v>138</v>
-      </c>
-      <c r="L63">
-        <v>314</v>
-      </c>
-      <c r="M63" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13">
-      <c r="A64" s="1">
-        <v>62</v>
-      </c>
-      <c r="B64" t="s">
-        <v>74</v>
-      </c>
-      <c r="C64">
-        <v>64324.07503617543</v>
-      </c>
-      <c r="D64">
-        <v>0.6055355231717512</v>
-      </c>
-      <c r="E64">
-        <v>0.6054996127556294</v>
-      </c>
-      <c r="F64">
-        <v>0.3842367145676718</v>
-      </c>
-      <c r="G64">
-        <v>0.6155107138205421</v>
-      </c>
-      <c r="H64">
-        <v>-32139.91088237994</v>
-      </c>
-      <c r="I64">
-        <v>0.04790108418105591</v>
-      </c>
-      <c r="J64">
-        <v>0.06510956839033798</v>
-      </c>
-      <c r="K64" t="s">
-        <v>139</v>
-      </c>
-      <c r="L64">
-        <v>314</v>
-      </c>
-      <c r="M64" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13">
-      <c r="A65" s="1">
-        <v>63</v>
-      </c>
-      <c r="B65" t="s">
-        <v>75</v>
-      </c>
-      <c r="C65">
-        <v>62447.12580772091</v>
-      </c>
-      <c r="D65">
-        <v>0.5910517004552405</v>
-      </c>
-      <c r="E65">
-        <v>0.5909374727817831</v>
-      </c>
-      <c r="F65">
-        <v>0.398440251499846</v>
-      </c>
-      <c r="G65">
-        <v>0.6013042209709227</v>
-      </c>
-      <c r="H65">
-        <v>-31202.55209668683</v>
-      </c>
-      <c r="I65">
-        <v>0.04933850440081054</v>
-      </c>
-      <c r="J65">
-        <v>0.1575186793121333</v>
-      </c>
-      <c r="K65" t="s">
-        <v>140</v>
-      </c>
-      <c r="L65">
-        <v>314</v>
-      </c>
-      <c r="M65" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13">
-      <c r="A66" s="1">
-        <v>64</v>
-      </c>
-      <c r="B66" t="s">
-        <v>76</v>
-      </c>
-      <c r="C66">
-        <v>61438.11719971801</v>
-      </c>
-      <c r="D66">
-        <v>0.5845169584529818</v>
-      </c>
-      <c r="E66">
-        <v>0.5844079401729778</v>
-      </c>
-      <c r="F66">
-        <v>0.4047827572936408</v>
-      </c>
-      <c r="G66">
-        <v>0.5949535566108426</v>
-      </c>
-      <c r="H66">
-        <v>-30698.06107842351</v>
-      </c>
-      <c r="I66">
-        <v>0.05023938750750962</v>
-      </c>
-      <c r="J66">
-        <v>0.1933348859883589</v>
-      </c>
-      <c r="K66" t="s">
-        <v>141</v>
-      </c>
-      <c r="L66">
-        <v>314</v>
-      </c>
-      <c r="M66" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
